--- a/system/System_Data_24_bus.xlsx
+++ b/system/System_Data_24_bus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AS17983\Desktop\NIMA\paper2_case1_reps\second_paper\Code_and_Data\shared_with_reviewer_R1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\second_paper\hybrid_centroid\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBE052-B984-4F0D-A13A-E4250AEEBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapW" sheetId="3" r:id="rId1"/>
@@ -18,9 +19,8 @@
     <sheet name="CapD" sheetId="2" r:id="rId4"/>
     <sheet name="GDATA" sheetId="13" r:id="rId5"/>
     <sheet name="MapG" sheetId="10" r:id="rId6"/>
-    <sheet name="Solar_location" sheetId="16" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Pgmin</t>
   </si>
@@ -164,18 +166,6 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">bus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile </t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>zone_network</t>
-  </si>
-  <si>
     <t>Enmax</t>
   </si>
   <si>
@@ -215,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -266,7 +256,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,24 +567,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23.58203125" customWidth="1"/>
-    <col min="4" max="5" width="10.58203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="4" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -608,7 +598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,13 +606,13 @@
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -630,13 +620,13 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -644,13 +634,13 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -664,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,13 +662,13 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -706,7 +696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -714,13 +704,13 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -728,13 +718,13 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -748,7 +738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -756,13 +746,13 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -770,13 +760,13 @@
         <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -790,7 +780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -804,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -818,7 +808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -832,7 +822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -846,7 +836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -860,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -874,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -882,13 +872,13 @@
         <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -902,7 +892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -916,7 +906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -930,7 +920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -951,19 +941,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -974,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -998,7 +988,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1016,7 +1006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1034,7 +1024,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1052,7 +1042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1070,7 +1060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1088,7 +1078,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1106,7 +1096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1142,7 +1132,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1160,7 +1150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1178,7 +1168,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1196,7 +1186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1214,7 +1204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1232,7 +1222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1250,7 +1240,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1286,7 +1276,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1304,7 +1294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1322,7 +1312,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1340,7 +1330,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1358,7 +1348,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1376,7 +1366,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1394,7 +1384,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1412,7 +1402,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1430,7 +1420,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1448,7 +1438,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1466,7 +1456,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1484,7 +1474,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1502,7 +1492,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1520,7 +1510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1538,7 +1528,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1556,7 +1546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1574,7 +1564,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1599,16 +1589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1682,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1756,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1830,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1904,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1978,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2052,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2126,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2200,7 +2190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2274,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2348,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2422,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2496,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2570,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2644,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2792,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2866,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2940,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3014,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3088,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -3162,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3236,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3310,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3384,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3458,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3532,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3606,7 +3596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3680,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3754,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -3828,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -3902,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -3976,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -4050,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4124,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4205,34 +4195,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="1025" width="10.58203125" customWidth="1"/>
+    <col min="8" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4240,7 +4230,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4248,7 +4238,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4256,7 +4246,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4264,7 +4254,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4272,7 +4262,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4280,7 +4270,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4288,7 +4278,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4296,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4304,7 +4294,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4312,7 +4302,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4329,7 +4319,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4337,7 +4327,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4345,7 +4335,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4353,7 +4343,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4361,7 +4351,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4369,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4377,7 +4367,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4385,7 +4375,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4393,7 +4383,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4401,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4417,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4432,19 +4422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="15.4140625" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4476,7 +4466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4508,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4540,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4572,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4604,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4636,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4668,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4700,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4732,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4764,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4796,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4828,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4866,16 +4856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4949,7 +4939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5023,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5097,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5171,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5245,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5319,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5393,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5467,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5541,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5615,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5689,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5763,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5841,51 +5831,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>